--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -74,6 +74,12 @@
   </si>
   <si>
     <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ara</t>
   </si>
 </sst>
 </file>
@@ -119,6 +125,7 @@
       <color rgb="FF000000"/>
       <name val="Menlo-Regular"/>
       <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,13 +223,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.43"/>
@@ -231,7 +238,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="53.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="13.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="13.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="8.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="11" style="1" width="8.45"/>
@@ -302,10 +309,74 @@
         <v>17</v>
       </c>
     </row>
+    <row r="3" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="2" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="2" t="n">
+        <v>1001</v>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">lang_code</t>
   </si>
@@ -74,12 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fra</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ara</t>
   </si>
 </sst>
 </file>
@@ -125,7 +119,6 @@
       <color rgb="FF000000"/>
       <name val="Menlo-Regular"/>
       <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -223,13 +216,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.4609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="8.45"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="8.43"/>
@@ -238,7 +231,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.4"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="53.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.69"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="13.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="13.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="10" style="2" width="8.43"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="11" style="1" width="8.45"/>
@@ -309,74 +302,10 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" s="2" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C3" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="1120.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="2" t="n">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="5" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Mosip Sample identity</t>
   </si>
   <si>
-    <t xml:space="preserve">{"id":"1001","idVersion":0.1,"schemaJson":"{\"$schema\":\"http:\\/\\/json-schema.org\\/draft-07\\/schema#\",\"description\":\"MOSIP Sample identity\",\"additionalProperties\":false,\"title\":\"MOSIP identity\",\"type\":\"object\",\"definitions\":{\"simpleType\":{\"uniqueItems\":true,\"additionalItems\":false,\"type\":\"array\",\"items\":{\"additionalProperties\":false,\"type\":\"object\",\"required\":[\"language\",\"value\"],\"properties\":{\"language\":{\"type\":\"string\"},\"value\":{\"type\":\"string\"}}}},\"documentType\":{\"additionalProperties\":false,\"type\":\"object\",\"properties\":{\"format\":{\"type\":\"string\"},\"type\":{\"type\":\"string\"},\"value\":{\"type\":\"string\"},\"refNumber\":{\"type\":[\"string\",\"null\"]}}},\"biometricsType\":{\"additionalProperties\":false,\"type\":\"object\",\"properties\":{\"format\":{\"type\":\"string\"},\"version\":{\"type\":\"number\",\"minimum\":0},\"value\":{\"type\":\"string\"}}}},\"properties\":{\"identity\":{\"additionalProperties\":false,\"type\":\"object\",\"required\":[\"IDSchemaVersion\",\"fullName\",\"dateOfBirth\",\"gender\",\"addressLine1\",\"addressLine2\",\"addressLine3\",\"region\",\"province\",\"city\",\"zone\",\"postalCode\",\"phone\",\"email\",\"proofOfIdentity\",\"individualBiometrics\"],\"properties\":{\"proofOfAddress\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"gender\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"city\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"postalCode\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[(?i)A-Z0-9]{5}$|^NA$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"proofOfException-1\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"referenceIdentityNumber\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^([0-9]{10,30})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"kyc\",\"type\":\"string\",\"fieldType\":\"default\"},\"individualBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"province\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"zone\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"proofOfDateOfBirth\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"addressLine1\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"addressLine2\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"residenceStatus\":{\"bioAttributes\":[],\"fieldCategory\":\"kyc\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"addressLine3\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"email\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[A-Za-z0-9_\\\\-]+(\\\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\\\.[A-Za-z0-9_]+)*(\\\\.[a-zA-Z]{2,})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerRID\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"fullName\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"dateOfBirth\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])\\/([0][1-9]|1[0-2])\\/([0][1-9]|[1-2][0-9]|3[01])$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"individualAuthBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"introducerUIN\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"proofOfIdentity\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"IDSchemaVersion\":{\"bioAttributes\":[],\"fieldCategory\":\"none\",\"format\":\"none\",\"type\":\"number\",\"fieldType\":\"default\",\"minimum\":0},\"proofOfException\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"phone\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[+]*([0-9]{1})([0-9]{9})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerName\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"proofOfRelationship\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"UIN\":{\"bioAttributes\":[],\"fieldCategory\":\"none\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"region\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"}}}}}","effectiveFrom":"2022-03-15T06:05:25.152","settings":[{"name":"scheduledjobs","description":{"ara":"إعدادات الوظائف المجدولة","fra":"Paramètres des travaux planifiés","eng":"Scheduled Jobs Settings"},"label":{"ara":"إعدادات الوظائف المجدولة","fra":"Paramètres des travaux planifiés","eng":"Scheduled Jobs Settings"},"fxml":"ScheduledJobsSettings.fxml","icon":"scheduledjobs.png","order":"1","shortcut-icon":"scheduledjobs-shortcut.png","access-control":["REGISTRATION_SUPERVISOR"]},{"name":"globalconfigs","description":{"ara":"إعدادات التكوين العامة","fra":"Paramètres de configuration globale","eng":"Global Config Settings"},"label":{"ara":"إعدادات التكوين العامة","fra":"Paramètres de configuration globale","eng":"Global Config Settings"},"fxml":"GlobalConfigSettings.fxml","icon":"globalconfigs.png","order":"2","shortcut-icon":"globalconfigs-shortcut.png","access-control":["REGISTRATION_SUPERVISOR","REGISTRATION_OFFICER"]},{"name":"devices","description":{"ara":"إعدادات الجهاز","fra":"Réglages de l'appareil","eng":"Device Settings"},"label":{"ara":"إعدادات الجهاز","fra":"Réglages de l'appareil","eng":"Device Settings"},"fxml":"DeviceSettings.fxml","icon":"devices.png","order":"3","shortcut-icon":"devices-shortcut.png","access-control":["REGISTRATION_SUPERVISOR","REGISTRATION_OFFICER"]}]}</t>
+    <t xml:space="preserve">{\"$schema\":\"http:\\/\\/json-schema.org\\/draft-07\\/schema#\",\"description\":\"MOSIP Sample identity\",\"additionalProperties\":false,\"title\":\"MOSIP identity\",\"type\":\"object\",\"definitions\":{\"simpleType\":{\"uniqueItems\":true,\"additionalItems\":false,\"type\":\"array\",\"items\":{\"additionalProperties\":false,\"type\":\"object\",\"required\":[\"language\",\"value\"],\"properties\":{\"language\":{\"type\":\"string\"},\"value\":{\"type\":\"string\"}}}},\"documentType\":{\"additionalProperties\":false,\"type\":\"object\",\"properties\":{\"format\":{\"type\":\"string\"},\"type\":{\"type\":\"string\"},\"value\":{\"type\":\"string\"},\"refNumber\":{\"type\":[\"string\",\"null\"]}}},\"biometricsType\":{\"additionalProperties\":false,\"type\":\"object\",\"properties\":{\"format\":{\"type\":\"string\"},\"version\":{\"type\":\"number\",\"minimum\":0},\"value\":{\"type\":\"string\"}}}},\"properties\":{\"identity\":{\"additionalProperties\":false,\"type\":\"object\",\"required\":[\"IDSchemaVersion\",\"fullName\",\"dateOfBirth\",\"gender\",\"addressLine1\",\"addressLine2\",\"addressLine3\",\"region\",\"province\",\"city\",\"zone\",\"postalCode\",\"phone\",\"email\",\"proofOfIdentity\",\"individualBiometrics\"],\"properties\":{\"proofOfAddress\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"gender\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"city\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"postalCode\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[(?i)A-Z0-9]{5}$|^NA$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"proofOfException-1\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"referenceIdentityNumber\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^([0-9]{10,30})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"kyc\",\"type\":\"string\",\"fieldType\":\"default\"},\"individualBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"province\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"zone\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"proofOfDateOfBirth\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"addressLine1\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"addressLine2\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"residenceStatus\":{\"bioAttributes\":[],\"fieldCategory\":\"kyc\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"addressLine3\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"email\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[A-Za-z0-9_\\\\-]+(\\\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\\\.[A-Za-z0-9_]+)*(\\\\.[a-zA-Z]{2,})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerRID\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"fullName\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"dateOfBirth\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])\\/([0][1-9]|1[0-2])\\/([0][1-9]|[1-2][0-9]|3[01])$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"individualAuthBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"introducerUIN\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"proofOfIdentity\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"IDSchemaVersion\":{\"bioAttributes\":[],\"fieldCategory\":\"none\",\"format\":\"none\",\"type\":\"number\",\"fieldType\":\"default\",\"minimum\":0},\"proofOfException\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"phone\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[+]*([0-9]{1})([0-9]{9})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerName\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"proofOfRelationship\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"UIN\":{\"bioAttributes\":[],\"fieldCategory\":\"none\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"region\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"}}}}}</t>
   </si>
   <si>
     <t xml:space="preserve">PUBLISHED</t>
@@ -209,7 +209,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
+      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -219,7 +219,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="11.57"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="8.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="15.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="53.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="75.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="13.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="10"/>

--- a/mosip_master/xlsx/identity_schema.xlsx
+++ b/mosip_master/xlsx/identity_schema.xlsx
@@ -61,7 +61,7 @@
     <t xml:space="preserve">Mosip Sample identity</t>
   </si>
   <si>
-    <t xml:space="preserve">{\"$schema\":\"http:\\/\\/json-schema.org\\/draft-07\\/schema#\",\"description\":\"MOSIP Sample identity\",\"additionalProperties\":false,\"title\":\"MOSIP identity\",\"type\":\"object\",\"definitions\":{\"simpleType\":{\"uniqueItems\":true,\"additionalItems\":false,\"type\":\"array\",\"items\":{\"additionalProperties\":false,\"type\":\"object\",\"required\":[\"language\",\"value\"],\"properties\":{\"language\":{\"type\":\"string\"},\"value\":{\"type\":\"string\"}}}},\"documentType\":{\"additionalProperties\":false,\"type\":\"object\",\"properties\":{\"format\":{\"type\":\"string\"},\"type\":{\"type\":\"string\"},\"value\":{\"type\":\"string\"},\"refNumber\":{\"type\":[\"string\",\"null\"]}}},\"biometricsType\":{\"additionalProperties\":false,\"type\":\"object\",\"properties\":{\"format\":{\"type\":\"string\"},\"version\":{\"type\":\"number\",\"minimum\":0},\"value\":{\"type\":\"string\"}}}},\"properties\":{\"identity\":{\"additionalProperties\":false,\"type\":\"object\",\"required\":[\"IDSchemaVersion\",\"fullName\",\"dateOfBirth\",\"gender\",\"addressLine1\",\"addressLine2\",\"addressLine3\",\"region\",\"province\",\"city\",\"zone\",\"postalCode\",\"phone\",\"email\",\"proofOfIdentity\",\"individualBiometrics\"],\"properties\":{\"proofOfAddress\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"gender\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"city\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"postalCode\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[(?i)A-Z0-9]{5}$|^NA$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"proofOfException-1\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"referenceIdentityNumber\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^([0-9]{10,30})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"kyc\",\"type\":\"string\",\"fieldType\":\"default\"},\"individualBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"province\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"zone\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"proofOfDateOfBirth\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"addressLine1\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"addressLine2\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"residenceStatus\":{\"bioAttributes\":[],\"fieldCategory\":\"kyc\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"addressLine3\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"email\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[A-Za-z0-9_\\\\-]+(\\\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\\\.[A-Za-z0-9_]+)*(\\\\.[a-zA-Z]{2,})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerRID\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"fullName\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{3,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"dateOfBirth\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])\\/([0][1-9]|1[0-2])\\/([0][1-9]|[1-2][0-9]|3[01])$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"individualAuthBiometrics\":{\"bioAttributes\":[\"leftEye\",\"rightEye\",\"rightIndex\",\"rightLittle\",\"rightRing\",\"rightMiddle\",\"leftIndex\",\"leftLittle\",\"leftRing\",\"leftMiddle\",\"leftThumb\",\"rightThumb\",\"face\"],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/biometricsType\"},\"introducerUIN\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"proofOfIdentity\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"IDSchemaVersion\":{\"bioAttributes\":[],\"fieldCategory\":\"none\",\"format\":\"none\",\"type\":\"number\",\"fieldType\":\"default\",\"minimum\":0},\"proofOfException\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"phone\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^[+]*([0-9]{1})([0-9]{9})$\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"introducerName\":{\"bioAttributes\":[],\"fieldCategory\":\"evidence\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"},\"proofOfRelationship\":{\"bioAttributes\":[],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/documentType\"},\"UIN\":{\"bioAttributes\":[],\"fieldCategory\":\"none\",\"format\":\"none\",\"type\":\"string\",\"fieldType\":\"default\"},\"region\":{\"bioAttributes\":[],\"validators\":[{\"validator\":\"^(?=.{0,50}$).*\",\"arguments\":[],\"type\":\"regex\"}],\"fieldCategory\":\"pvt\",\"format\":\"none\",\"fieldType\":\"default\",\"$ref\":\"#\\/definitions\\/simpleType\"}}}}}</t>
+    <t xml:space="preserve">{"$schema":"http:\/\/json-schema.org\/draft-07\/schema#","description":"MOSIP Sample identity","additionalProperties":false,"title":"MOSIP identity","type":"object","definitions":{"simpleType":{"uniqueItems":true,"additionalItems":false,"type":"array","items":{"additionalProperties":false,"type":"object","required":["language","value"],"properties":{"language":{"type":"string"},"value":{"type":"string"}}}},"documentType":{"additionalProperties":false,"type":"object","properties":{"format":{"type":"string"},"type":{"type":"string"},"value":{"type":"string"},"refNumber":{"type":["string","null"]}}},"biometricsType":{"additionalProperties":false,"type":"object","properties":{"format":{"type":"string"},"version":{"type":"number","minimum":0},"value":{"type":"string"}}}},"properties":{"identity":{"additionalProperties":false,"type":"object","required":["IDSchemaVersion","fullName","dateOfBirth","gender","addressLine1","addressLine2","addressLine3","region","province","city","zone","postalCode","phone","email","proofOfIdentity","individualBiometrics"],"properties":{"proofOfAddress":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"gender":{"bioAttributes":[],"fieldCategory":"pvt","format":"","fieldType":"default","$ref":"#\/definitions\/simpleType"},"city":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"postalCode":{"bioAttributes":[],"validators":[{"validator":"^[(?i)A-Z0-9]{5}$|^NA$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"proofOfException-1":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"referenceIdentityNumber":{"bioAttributes":[],"validators":[{"validator":"^([0-9]{10,30})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"kyc","type":"string","fieldType":"default"},"individualBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/biometricsType"},"province":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"zone":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"proofOfDateOfBirth":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"addressLine1":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"addressLine2":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"residenceStatus":{"bioAttributes":[],"fieldCategory":"kyc","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"addressLine3":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"email":{"bioAttributes":[],"validators":[{"validator":"^[A-Za-z0-9_\\-]+(\\.[A-Za-z0-9_]+)*@[A-Za-z0-9_-]+(\\.[A-Za-z0-9_]+)*(\\.[a-zA-Z]{2,})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"introducerRID":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","type":"string","fieldType":"default"},"introducerBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/biometricsType"},"fullName":{"bioAttributes":[],"validators":[{"validator":"^(?=.{3,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"dateOfBirth":{"bioAttributes":[],"validators":[{"validator":"^(1869|18[7-9][0-9]|19[0-9][0-9]|20[0-9][0-9])\/([0][1-9]|1[0-2])\/([0][1-9]|[1-2][0-9]|3[01])$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"individualAuthBiometrics":{"bioAttributes":["leftEye","rightEye","rightIndex","rightLittle","rightRing","rightMiddle","leftIndex","leftLittle","leftRing","leftMiddle","leftThumb","rightThumb","face"],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/biometricsType"},"introducerUIN":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","type":"string","fieldType":"default"},"proofOfIdentity":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"IDSchemaVersion":{"bioAttributes":[],"fieldCategory":"none","format":"none","type":"number","fieldType":"default","minimum":0},"proofOfException":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"phone":{"bioAttributes":[],"validators":[{"validator":"^[+]*([0-9]{1})([0-9]{9})$","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","type":"string","fieldType":"default"},"introducerName":{"bioAttributes":[],"fieldCategory":"evidence","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"},"proofOfRelationship":{"bioAttributes":[],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/documentType"},"UIN":{"bioAttributes":[],"fieldCategory":"none","format":"none","type":"string","fieldType":"default"},"region":{"bioAttributes":[],"validators":[{"validator":"^(?=.{0,50}$).*","arguments":[],"type":"regex"}],"fieldCategory":"pvt","format":"none","fieldType":"default","$ref":"#\/definitions\/simpleType"}}}}}</t>
   </si>
   <si>
     <t xml:space="preserve">PUBLISHED</t>
@@ -209,7 +209,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E11" activeCellId="0" sqref="E11"/>
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
